--- a/biology/Zoologie/Alvarezsauroidea/Alvarezsauroidea.xlsx
+++ b/biology/Zoologie/Alvarezsauroidea/Alvarezsauroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alvarezsauroidea constitue une super-famille de dinosaures théropodes maniraptoriens, ayant vécu du Jurassique supérieur à la fin du Crétacé, soit il y a environ entre 161,5 et 66,0 millions d'années. Ils sont connus en Amérique du Sud et du Nord, ainsi qu'en Asie.
-Ce taxon, ainsi que le taxon supérieur des Alvarezsauria et celui inférieur de la famille des Alvarezsauridae, ont été créés par Choiniere et ses collègues en 2010[1].
+Ce taxon, ainsi que le taxon supérieur des Alvarezsauria et celui inférieur de la famille des Alvarezsauridae, ont été créés par Choiniere et ses collègues en 2010.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre la composition phylogénétique des Alvarezsauroidea, suivant l’étude menée par Choiniere et al. en 2010[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre la composition phylogénétique des Alvarezsauroidea, suivant l’étude menée par Choiniere et al. en 2010.
 Il distingue un Alvarezsauroidea basal, Haplocheirus, des autres genres qui sont regroupés dans la famille des Alvarezsauridae  :
-Xing Xu, J. N. Choiniere et leurs collègues complètent ce cladogramme en 2011 avec plusieurs genres supplémentaires[2] :
+Xing Xu, J. N. Choiniere et leurs collègues complètent ce cladogramme en 2011 avec plusieurs genres supplémentaires :
 </t>
         </is>
       </c>
